--- a/data/trans_orig/barthel_r-Edad-trans_orig.xlsx
+++ b/data/trans_orig/barthel_r-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B89C107-D2C6-4423-B83B-2BCA46013C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CCF5A01-4166-440A-9E07-8CE05C2348BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A4CC9D9F-2AD9-4FE2-B659-B787C15B5A7F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C32E87EA-5146-472B-8B8D-074D96E654A6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="406">
   <si>
     <t>Barthel recodificado en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -200,1087 +200,1063 @@
     <t>86,66%</t>
   </si>
   <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>79,63%</t>
   </si>
   <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
   </si>
   <si>
     <t>82,62%</t>
   </si>
   <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
   </si>
   <si>
     <t>5,4%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>6,92%</t>
   </si>
   <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
   </si>
   <si>
     <t>6,27%</t>
   </si>
   <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Barthel recodificado en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>Barthel recodificado en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>Barthel recodificado en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Barthel recodificado en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>Barthel recodificado en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
   </si>
   <si>
     <t>0,1%</t>
-  </si>
-  <si>
-    <t>Barthel recodificado en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
   </si>
 </sst>
 </file>
@@ -1692,7 +1668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CF2B3F-2D19-4E53-AD8F-9ED53E584FE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D6AF7D-ADD6-4C13-9B45-E70B3D850989}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4354,7 +4330,7 @@
         <v>5327</v>
       </c>
       <c r="N53" s="7">
-        <v>5476432</v>
+        <v>5476433</v>
       </c>
       <c r="O53" s="7" t="s">
         <v>102</v>
@@ -4459,13 +4435,13 @@
         <v>73922</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="Q55" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4456,13 @@
         <v>27999</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H56" s="7">
         <v>54</v>
@@ -4495,13 +4471,13 @@
         <v>60285</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M56" s="7">
         <v>84</v>
@@ -4510,13 +4486,13 @@
         <v>88284</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,10 +4507,10 @@
         <v>11063</v>
       </c>
       <c r="E57" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>133</v>
@@ -4561,7 +4537,7 @@
         <v>37510</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>40</v>
@@ -4603,7 +4579,7 @@
         <v>95</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="M58" s="7">
         <v>6</v>
@@ -4612,13 +4588,13 @@
         <v>5202</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P58" s="7" t="s">
         <v>95</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,7 +4636,7 @@
         <v>6511</v>
       </c>
       <c r="N59" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O59" s="7" t="s">
         <v>19</v>
@@ -4696,7 +4672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94569CEE-FBB2-4670-BA3F-3EB26FF08BAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E46A7E-0D31-4AAE-A5CC-E6AF0729D53B}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5251,7 +5227,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5353,7 +5329,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5404,7 +5380,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -5455,7 +5431,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5506,7 +5482,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5557,7 +5533,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6086,7 +6062,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6188,7 +6164,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6239,7 +6215,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6290,7 +6266,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6341,7 +6317,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6392,7 +6368,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7041,10 +7017,10 @@
         <v>170</v>
       </c>
       <c r="K47" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M47" s="7">
         <v>60</v>
@@ -7053,13 +7029,13 @@
         <v>63792</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7074,13 +7050,13 @@
         <v>55980</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H48" s="7">
         <v>123</v>
@@ -7089,13 +7065,13 @@
         <v>133983</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="L48" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M48" s="7">
         <v>171</v>
@@ -7104,13 +7080,13 @@
         <v>189963</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="Q48" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7125,13 +7101,13 @@
         <v>21410</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H49" s="7">
         <v>40</v>
@@ -7140,13 +7116,13 @@
         <v>43283</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M49" s="7">
         <v>58</v>
@@ -7155,13 +7131,13 @@
         <v>64693</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7176,13 +7152,13 @@
         <v>6145</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H50" s="7">
         <v>13</v>
@@ -7191,13 +7167,13 @@
         <v>15183</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M50" s="7">
         <v>19</v>
@@ -7206,13 +7182,13 @@
         <v>21328</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7331,13 +7307,13 @@
         <v>2867142</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H53" s="7">
         <v>2604</v>
@@ -7346,13 +7322,13 @@
         <v>2815334</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M53" s="7">
         <v>5309</v>
@@ -7361,13 +7337,13 @@
         <v>5682476</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7382,13 +7358,13 @@
         <v>454250</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H54" s="7">
         <v>478</v>
@@ -7397,13 +7373,13 @@
         <v>508585</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M54" s="7">
         <v>890</v>
@@ -7412,13 +7388,13 @@
         <v>962835</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7436,10 +7412,10 @@
         <v>90</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H55" s="7">
         <v>40</v>
@@ -7448,7 +7424,7 @@
         <v>41940</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>219</v>
@@ -7469,7 +7445,7 @@
         <v>222</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7487,10 +7463,10 @@
         <v>223</v>
       </c>
       <c r="F56" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H56" s="7">
         <v>123</v>
@@ -7499,13 +7475,13 @@
         <v>133983</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>85</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M56" s="7">
         <v>171</v>
@@ -7514,13 +7490,13 @@
         <v>189963</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7535,13 +7511,13 @@
         <v>21410</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="H57" s="7">
         <v>40</v>
@@ -7550,13 +7526,13 @@
         <v>43283</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="M57" s="7">
         <v>58</v>
@@ -7565,13 +7541,13 @@
         <v>64693</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -7586,13 +7562,13 @@
         <v>6145</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="H58" s="7">
         <v>13</v>
@@ -7607,7 +7583,7 @@
         <v>45</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>238</v>
+        <v>137</v>
       </c>
       <c r="M58" s="7">
         <v>19</v>
@@ -7619,10 +7595,10 @@
         <v>35</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>155</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -7700,7 +7676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B043EDDE-DBE6-4C5C-839D-1697D73C6DC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C956669-EB16-4480-89FD-EF23D6A601A1}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7717,7 +7693,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8240,7 +8216,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -8255,7 +8231,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -8303,7 +8279,7 @@
         <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>19</v>
@@ -8318,7 +8294,7 @@
         <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>19</v>
@@ -8342,7 +8318,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8357,7 +8333,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -8393,7 +8369,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -8408,7 +8384,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -8444,7 +8420,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8459,7 +8435,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8495,7 +8471,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -8510,7 +8486,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -8546,7 +8522,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -8561,7 +8537,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -8650,7 +8626,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -8698,7 +8674,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>19</v>
@@ -8752,7 +8728,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -8803,7 +8779,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -8854,7 +8830,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8905,7 +8881,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8956,7 +8932,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -9060,7 +9036,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9108,7 +9084,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>19</v>
@@ -9132,13 +9108,13 @@
         <v>1184</v>
       </c>
       <c r="N29" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>19</v>
@@ -9162,7 +9138,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -9213,7 +9189,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -9264,7 +9240,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9315,7 +9291,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -9366,7 +9342,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -9438,7 +9414,7 @@
         <v>1184</v>
       </c>
       <c r="N35" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>19</v>
@@ -9533,7 +9509,7 @@
         <v>17</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>19</v>
@@ -9976,13 +9952,13 @@
         <v>490699</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>248</v>
+        <v>99</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H46" s="7">
         <v>462</v>
@@ -9991,13 +9967,13 @@
         <v>537722</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M46" s="7">
         <v>979</v>
@@ -10006,13 +9982,13 @@
         <v>1028421</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10027,13 +10003,13 @@
         <v>30531</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>81</v>
+        <v>254</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H47" s="7">
         <v>60</v>
@@ -10042,13 +10018,13 @@
         <v>71460</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M47" s="7">
         <v>93</v>
@@ -10057,13 +10033,13 @@
         <v>101991</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10078,7 +10054,7 @@
         <v>46539</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>189</v>
+        <v>262</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>263</v>
@@ -10096,10 +10072,10 @@
         <v>265</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M48" s="7">
         <v>151</v>
@@ -10108,13 +10084,13 @@
         <v>174418</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -10129,13 +10105,13 @@
         <v>20929</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H49" s="7">
         <v>25</v>
@@ -10144,13 +10120,13 @@
         <v>31517</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M49" s="7">
         <v>49</v>
@@ -10159,13 +10135,13 @@
         <v>52446</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -10183,10 +10159,10 @@
         <v>92</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="H50" s="7">
         <v>7</v>
@@ -10195,13 +10171,13 @@
         <v>9353</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>279</v>
+        <v>155</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M50" s="7">
         <v>10</v>
@@ -10210,10 +10186,10 @@
         <v>11983</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>233</v>
+        <v>120</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>281</v>
+        <v>144</v>
       </c>
       <c r="Q50" s="7" t="s">
         <v>282</v>
@@ -10338,10 +10314,10 @@
         <v>283</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H53" s="7">
         <v>2683</v>
@@ -10350,13 +10326,13 @@
         <v>2766611</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M53" s="7">
         <v>5287</v>
@@ -10365,13 +10341,13 @@
         <v>5569633</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>158</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -10386,13 +10362,13 @@
         <v>490699</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="H54" s="7">
         <v>462</v>
@@ -10401,13 +10377,13 @@
         <v>537722</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M54" s="7">
         <v>979</v>
@@ -10416,13 +10392,13 @@
         <v>1028421</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -10437,13 +10413,13 @@
         <v>30531</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="H55" s="7">
         <v>60</v>
@@ -10452,13 +10428,13 @@
         <v>71460</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>301</v>
+        <v>220</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M55" s="7">
         <v>93</v>
@@ -10467,13 +10443,13 @@
         <v>101991</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -10488,10 +10464,10 @@
         <v>46539</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>305</v>
@@ -10503,13 +10479,13 @@
         <v>127879</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M56" s="7">
         <v>151</v>
@@ -10518,13 +10494,13 @@
         <v>174418</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -10539,13 +10515,13 @@
         <v>20929</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H57" s="7">
         <v>25</v>
@@ -10554,13 +10530,13 @@
         <v>31517</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M57" s="7">
         <v>49</v>
@@ -10569,13 +10545,13 @@
         <v>52446</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>314</v>
+        <v>89</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>315</v>
+        <v>115</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>93</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -10590,13 +10566,13 @@
         <v>2630</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H58" s="7">
         <v>7</v>
@@ -10605,13 +10581,13 @@
         <v>9353</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>115</v>
+        <v>317</v>
       </c>
       <c r="M58" s="7">
         <v>10</v>
@@ -10623,10 +10599,10 @@
         <v>88</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>237</v>
+        <v>140</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -10704,7 +10680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A4D3DD-EAA3-4F21-8488-9FCD03B0A4BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B9BD02-E227-4DF8-941A-E828B6F85D41}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10721,7 +10697,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10834,7 +10810,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -10849,7 +10825,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -10864,7 +10840,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>321</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -10882,7 +10858,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -10897,7 +10873,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -10912,7 +10888,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -10936,7 +10912,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -10951,7 +10927,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -10966,7 +10942,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>321</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10987,7 +10963,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -11002,7 +10978,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -11017,7 +10993,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>321</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -11038,7 +11014,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -11053,7 +11029,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -11068,7 +11044,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>321</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -11089,7 +11065,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -11104,7 +11080,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -11119,7 +11095,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>321</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -11140,7 +11116,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -11155,7 +11131,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -11170,7 +11146,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>321</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -11244,7 +11220,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -11259,7 +11235,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -11274,7 +11250,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -11292,7 +11268,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>19</v>
@@ -11307,7 +11283,7 @@
         <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>19</v>
@@ -11322,7 +11298,7 @@
         <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>19</v>
@@ -11346,7 +11322,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -11361,7 +11337,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -11376,7 +11352,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -11397,7 +11373,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -11412,7 +11388,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -11427,7 +11403,7 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -11448,7 +11424,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -11463,7 +11439,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -11478,7 +11454,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -11499,7 +11475,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -11514,7 +11490,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -11529,7 +11505,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -11550,7 +11526,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -11565,7 +11541,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -11580,7 +11556,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -11669,7 +11645,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -11684,7 +11660,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -11717,7 +11693,7 @@
         <v>17</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>19</v>
@@ -11732,7 +11708,7 @@
         <v>17</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>19</v>
@@ -11771,7 +11747,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -11786,7 +11762,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11822,7 +11798,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -11837,7 +11813,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -11873,7 +11849,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -11888,7 +11864,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -11924,7 +11900,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -11939,7 +11915,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -11975,7 +11951,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -11990,7 +11966,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -12094,7 +12070,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -12127,7 +12103,7 @@
         <v>17</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>19</v>
@@ -12136,13 +12112,13 @@
         <v>1806</v>
       </c>
       <c r="N29" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>19</v>
@@ -12196,7 +12172,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -12247,7 +12223,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -12298,7 +12274,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -12349,7 +12325,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -12400,7 +12376,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -12442,7 +12418,7 @@
         <v>1806</v>
       </c>
       <c r="N35" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>19</v>
@@ -12504,7 +12480,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -12552,7 +12528,7 @@
         <v>17</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>19</v>
@@ -12606,7 +12582,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -12657,7 +12633,7 @@
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -12708,7 +12684,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12759,7 +12735,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -12810,7 +12786,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12878,13 +12854,13 @@
         <v>833</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -12893,13 +12869,13 @@
         <v>435</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -12908,13 +12884,13 @@
         <v>1268</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>243</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12932,10 +12908,10 @@
         <v>36</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>339</v>
+        <v>114</v>
       </c>
       <c r="H45" s="7">
         <v>11</v>
@@ -12944,13 +12920,13 @@
         <v>6709</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>29</v>
+        <v>239</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>195</v>
+        <v>280</v>
       </c>
       <c r="M45" s="7">
         <v>14</v>
@@ -12959,10 +12935,10 @@
         <v>8730</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>321</v>
+        <v>237</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>157</v>
+        <v>36</v>
       </c>
       <c r="Q45" s="7" t="s">
         <v>219</v>
@@ -12980,13 +12956,13 @@
         <v>543209</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H46" s="7">
         <v>1073</v>
@@ -12995,13 +12971,13 @@
         <v>676820</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M46" s="7">
         <v>1865</v>
@@ -13010,13 +12986,13 @@
         <v>1220029</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -13031,13 +13007,13 @@
         <v>59444</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H47" s="7">
         <v>237</v>
@@ -13046,13 +13022,13 @@
         <v>131765</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M47" s="7">
         <v>329</v>
@@ -13061,13 +13037,13 @@
         <v>191209</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -13082,13 +13058,13 @@
         <v>70611</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H48" s="7">
         <v>268</v>
@@ -13097,13 +13073,13 @@
         <v>141523</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M48" s="7">
         <v>374</v>
@@ -13112,13 +13088,13 @@
         <v>212134</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -13133,13 +13109,13 @@
         <v>20419</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>368</v>
+        <v>309</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>369</v>
+        <v>302</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>370</v>
+        <v>274</v>
       </c>
       <c r="H49" s="7">
         <v>104</v>
@@ -13148,13 +13124,13 @@
         <v>62495</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>373</v>
+        <v>175</v>
       </c>
       <c r="M49" s="7">
         <v>135</v>
@@ -13163,13 +13139,13 @@
         <v>82914</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>68</v>
+        <v>365</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>187</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -13187,10 +13163,10 @@
         <v>88</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>155</v>
+        <v>237</v>
       </c>
       <c r="H50" s="7">
         <v>14</v>
@@ -13199,13 +13175,13 @@
         <v>6891</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>35</v>
+        <v>239</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="M50" s="7">
         <v>17</v>
@@ -13220,7 +13196,7 @@
         <v>28</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>314</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -13232,7 +13208,7 @@
         <v>1028</v>
       </c>
       <c r="D51" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>19</v>
@@ -13288,13 +13264,13 @@
         <v>833</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>138</v>
+        <v>331</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -13303,7 +13279,7 @@
         <v>435</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>11</v>
@@ -13318,13 +13294,13 @@
         <v>1268</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -13339,13 +13315,13 @@
         <v>2689495</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>287</v>
+        <v>371</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H53" s="7">
         <v>3670</v>
@@ -13354,28 +13330,28 @@
         <v>2815652</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M53" s="7">
         <v>6021</v>
       </c>
       <c r="N53" s="7">
-        <v>5505147</v>
+        <v>5505146</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -13390,13 +13366,13 @@
         <v>543209</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>269</v>
+        <v>381</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>110</v>
+        <v>382</v>
       </c>
       <c r="H54" s="7">
         <v>1073</v>
@@ -13405,13 +13381,13 @@
         <v>676820</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M54" s="7">
         <v>1865</v>
@@ -13420,13 +13396,13 @@
         <v>1220029</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -13441,13 +13417,13 @@
         <v>59444</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="H55" s="7">
         <v>237</v>
@@ -13456,13 +13432,13 @@
         <v>131765</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>398</v>
+        <v>167</v>
       </c>
       <c r="M55" s="7">
         <v>329</v>
@@ -13471,13 +13447,13 @@
         <v>191209</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>400</v>
+        <v>227</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -13492,13 +13468,13 @@
         <v>70611</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>185</v>
+        <v>397</v>
       </c>
       <c r="H56" s="7">
         <v>268</v>
@@ -13507,13 +13483,13 @@
         <v>141523</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="M56" s="7">
         <v>374</v>
@@ -13522,13 +13498,13 @@
         <v>212134</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>397</v>
+        <v>277</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>408</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -13543,13 +13519,13 @@
         <v>20419</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>124</v>
+        <v>333</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="H57" s="7">
         <v>104</v>
@@ -13561,10 +13537,10 @@
         <v>223</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="M57" s="7">
         <v>135</v>
@@ -13573,13 +13549,13 @@
         <v>82914</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>411</v>
+        <v>136</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>413</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -13594,13 +13570,13 @@
         <v>1217</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="H58" s="7">
         <v>14</v>
@@ -13609,10 +13585,10 @@
         <v>6891</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>237</v>
+        <v>405</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>35</v>
@@ -13624,10 +13600,10 @@
         <v>8109</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Q58" s="7" t="s">
         <v>15</v>
@@ -13672,7 +13648,7 @@
         <v>8743</v>
       </c>
       <c r="N59" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O59" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/barthel_r-Edad-trans_orig.xlsx
+++ b/data/trans_orig/barthel_r-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CCF5A01-4166-440A-9E07-8CE05C2348BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA2E39F0-D41E-4B5E-844D-5C2E6880D57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C32E87EA-5146-472B-8B8D-074D96E654A6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{64643F7A-8D26-4E1F-B094-854C352A8900}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="413">
   <si>
     <t>Barthel recodificado en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -200,1057 +200,1078 @@
     <t>86,66%</t>
   </si>
   <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
   </si>
   <si>
     <t>79,63%</t>
   </si>
   <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
   </si>
   <si>
     <t>82,62%</t>
   </si>
   <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
   <si>
     <t>5,4%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
   </si>
   <si>
     <t>6,92%</t>
   </si>
   <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Barthel recodificado en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>Barthel recodificado en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>Barthel recodificado en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
   </si>
   <si>
     <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Barthel recodificado en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>Barthel recodificado en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>Barthel recodificado en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
   </si>
   <si>
     <t>0,95%</t>
@@ -1668,7 +1689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D6AF7D-ADD6-4C13-9B45-E70B3D850989}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E85C37-6255-4C9E-BA4A-90E5F1C6CE89}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4300,7 +4321,7 @@
         <v>2691</v>
       </c>
       <c r="D53" s="7">
-        <v>2774078</v>
+        <v>2774077</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>96</v>
@@ -4435,13 +4456,13 @@
         <v>73922</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,10 +4477,10 @@
         <v>27999</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>124</v>
@@ -4489,10 +4510,10 @@
         <v>128</v>
       </c>
       <c r="P56" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4507,13 +4528,13 @@
         <v>11063</v>
       </c>
       <c r="E57" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H57" s="7">
         <v>24</v>
@@ -4522,13 +4543,13 @@
         <v>26446</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="M57" s="7">
         <v>36</v>
@@ -4537,13 +4558,13 @@
         <v>37510</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>40</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,7 +4585,7 @@
         <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H58" s="7">
         <v>5</v>
@@ -4573,13 +4594,13 @@
         <v>4363</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>95</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M58" s="7">
         <v>6</v>
@@ -4588,13 +4609,13 @@
         <v>5202</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P58" s="7" t="s">
         <v>95</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,7 +4627,7 @@
         <v>3214</v>
       </c>
       <c r="D59" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>19</v>
@@ -4650,7 +4671,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4672,7 +4693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E46A7E-0D31-4AAE-A5CC-E6AF0729D53B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2726A3-3460-47A8-ABA4-57F253047140}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4689,7 +4710,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4802,37 +4823,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,7 +4871,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4865,7 +4886,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4880,7 +4901,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4904,37 +4925,37 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,37 +4976,37 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,37 +5027,37 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,37 +5078,37 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,37 +5129,37 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,7 +5248,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5275,7 +5296,7 @@
         <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>19</v>
@@ -5329,7 +5350,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5380,7 +5401,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -5431,7 +5452,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5482,7 +5503,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5533,7 +5554,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6032,37 +6053,37 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,7 +6101,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>19</v>
@@ -6095,7 +6116,7 @@
         <v>17</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>19</v>
@@ -6110,7 +6131,7 @@
         <v>17</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>19</v>
@@ -6134,37 +6155,37 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="M30" s="7">
-        <v>0</v>
-      </c>
-      <c r="N30" s="7">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6185,37 +6206,37 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6236,37 +6257,37 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,37 +6308,37 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>0</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="M33" s="7">
-        <v>0</v>
-      </c>
-      <c r="N33" s="7">
-        <v>0</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,37 +6359,37 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="M34" s="7">
-        <v>0</v>
-      </c>
-      <c r="N34" s="7">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6457,7 +6478,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -6505,7 +6526,7 @@
         <v>17</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>19</v>
@@ -6559,7 +6580,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -6610,7 +6631,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -6661,7 +6682,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -6712,7 +6733,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -6763,7 +6784,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -6867,7 +6888,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -6918,7 +6939,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -6948,13 +6969,13 @@
         <v>454250</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H46" s="7">
         <v>478</v>
@@ -6963,13 +6984,13 @@
         <v>508585</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M46" s="7">
         <v>890</v>
@@ -6978,13 +6999,13 @@
         <v>962835</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6999,13 +7020,13 @@
         <v>21852</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H47" s="7">
         <v>40</v>
@@ -7014,10 +7035,10 @@
         <v>41940</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>171</v>
@@ -7029,13 +7050,13 @@
         <v>63792</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7050,13 +7071,13 @@
         <v>55980</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H48" s="7">
         <v>123</v>
@@ -7065,13 +7086,13 @@
         <v>133983</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M48" s="7">
         <v>171</v>
@@ -7080,13 +7101,13 @@
         <v>189963</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,13 +7122,13 @@
         <v>21410</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H49" s="7">
         <v>40</v>
@@ -7116,13 +7137,13 @@
         <v>43283</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M49" s="7">
         <v>58</v>
@@ -7131,10 +7152,10 @@
         <v>64693</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="Q49" s="7" t="s">
         <v>189</v>
@@ -7155,7 +7176,7 @@
         <v>190</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>191</v>
@@ -7182,13 +7203,13 @@
         <v>21328</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="Q50" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,13 +7328,13 @@
         <v>2867142</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H53" s="7">
         <v>2604</v>
@@ -7322,13 +7343,13 @@
         <v>2815334</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="L53" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M53" s="7">
         <v>5309</v>
@@ -7337,13 +7358,13 @@
         <v>5682476</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P53" s="7" t="s">
+      <c r="Q53" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7358,13 +7379,13 @@
         <v>454250</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H54" s="7">
         <v>478</v>
@@ -7373,13 +7394,13 @@
         <v>508585</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="L54" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M54" s="7">
         <v>890</v>
@@ -7388,13 +7409,13 @@
         <v>962835</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="Q54" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7412,10 +7433,10 @@
         <v>90</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H55" s="7">
         <v>40</v>
@@ -7424,13 +7445,13 @@
         <v>41940</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M55" s="7">
         <v>60</v>
@@ -7439,13 +7460,13 @@
         <v>63792</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7460,13 +7481,13 @@
         <v>55980</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F56" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="G56" s="7" t="s">
-        <v>224</v>
+        <v>86</v>
       </c>
       <c r="H56" s="7">
         <v>123</v>
@@ -7475,13 +7496,13 @@
         <v>133983</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>85</v>
+        <v>225</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M56" s="7">
         <v>171</v>
@@ -7490,13 +7511,13 @@
         <v>189963</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7511,13 +7532,13 @@
         <v>21410</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H57" s="7">
         <v>40</v>
@@ -7526,13 +7547,13 @@
         <v>43283</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>231</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="M57" s="7">
         <v>58</v>
@@ -7541,13 +7562,13 @@
         <v>64693</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -7562,10 +7583,10 @@
         <v>6145</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>14</v>
@@ -7577,13 +7598,13 @@
         <v>15183</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="M58" s="7">
         <v>19</v>
@@ -7595,10 +7616,10 @@
         <v>35</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>236</v>
+        <v>150</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>237</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -7654,7 +7675,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -7676,7 +7697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C956669-EB16-4480-89FD-EF23D6A601A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBC7A93-D378-4A4F-B66A-D6D3EEF7B68B}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7693,7 +7714,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7821,7 +7842,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7869,7 +7890,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -7923,7 +7944,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -7974,7 +7995,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -8025,7 +8046,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8076,7 +8097,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -8127,7 +8148,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -8216,7 +8237,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -8231,7 +8252,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -8264,7 +8285,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>19</v>
@@ -8279,7 +8300,7 @@
         <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>19</v>
@@ -8294,7 +8315,7 @@
         <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>19</v>
@@ -8318,7 +8339,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8333,7 +8354,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -8369,7 +8390,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -8384,7 +8405,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -8420,7 +8441,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8435,7 +8456,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8471,7 +8492,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -8486,7 +8507,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -8522,7 +8543,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -8537,7 +8558,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -8626,7 +8647,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -8674,7 +8695,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>19</v>
@@ -8728,7 +8749,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -8779,7 +8800,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -8830,7 +8851,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8881,7 +8902,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8932,7 +8953,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -9036,7 +9057,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9084,7 +9105,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>19</v>
@@ -9108,13 +9129,13 @@
         <v>1184</v>
       </c>
       <c r="N29" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>19</v>
@@ -9138,7 +9159,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -9189,7 +9210,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -9240,7 +9261,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9291,7 +9312,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -9342,7 +9363,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -9414,7 +9435,7 @@
         <v>1184</v>
       </c>
       <c r="N35" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>19</v>
@@ -9446,7 +9467,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -9476,7 +9497,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9494,7 +9515,7 @@
         <v>17</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>19</v>
@@ -9509,7 +9530,7 @@
         <v>17</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>19</v>
@@ -9524,7 +9545,7 @@
         <v>17</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>19</v>
@@ -9548,7 +9569,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -9578,7 +9599,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9599,7 +9620,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -9629,7 +9650,7 @@
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -9650,7 +9671,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -9680,7 +9701,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9701,7 +9722,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -9731,7 +9752,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9752,7 +9773,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -9782,7 +9803,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9952,13 +9973,13 @@
         <v>490699</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H46" s="7">
         <v>462</v>
@@ -9967,13 +9988,13 @@
         <v>537722</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M46" s="7">
         <v>979</v>
@@ -9982,13 +10003,13 @@
         <v>1028421</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10003,13 +10024,13 @@
         <v>30531</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H47" s="7">
         <v>60</v>
@@ -10018,13 +10039,13 @@
         <v>71460</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M47" s="7">
         <v>93</v>
@@ -10033,13 +10054,13 @@
         <v>101991</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10054,13 +10075,13 @@
         <v>46539</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H48" s="7">
         <v>101</v>
@@ -10069,13 +10090,13 @@
         <v>127879</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="L48" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M48" s="7">
         <v>151</v>
@@ -10084,13 +10105,13 @@
         <v>174418</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="Q48" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -10105,13 +10126,13 @@
         <v>20929</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H49" s="7">
         <v>25</v>
@@ -10120,13 +10141,13 @@
         <v>31517</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M49" s="7">
         <v>49</v>
@@ -10135,13 +10156,13 @@
         <v>52446</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="P49" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -10159,10 +10180,10 @@
         <v>92</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="H50" s="7">
         <v>7</v>
@@ -10171,13 +10192,13 @@
         <v>9353</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>155</v>
+        <v>279</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="M50" s="7">
         <v>10</v>
@@ -10186,13 +10207,13 @@
         <v>11983</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>282</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10311,13 +10332,13 @@
         <v>2803022</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H53" s="7">
         <v>2683</v>
@@ -10326,13 +10347,13 @@
         <v>2766611</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M53" s="7">
         <v>5287</v>
@@ -10341,13 +10362,13 @@
         <v>5569633</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -10362,13 +10383,13 @@
         <v>490699</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>293</v>
+        <v>206</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H54" s="7">
         <v>462</v>
@@ -10377,13 +10398,13 @@
         <v>537722</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M54" s="7">
         <v>979</v>
@@ -10392,13 +10413,13 @@
         <v>1028421</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -10413,13 +10434,13 @@
         <v>30531</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>230</v>
+        <v>299</v>
       </c>
       <c r="H55" s="7">
         <v>60</v>
@@ -10428,13 +10449,13 @@
         <v>71460</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M55" s="7">
         <v>93</v>
@@ -10443,13 +10464,13 @@
         <v>101991</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -10464,13 +10485,13 @@
         <v>46539</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>126</v>
+        <v>305</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>93</v>
+        <v>306</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H56" s="7">
         <v>101</v>
@@ -10479,13 +10500,13 @@
         <v>127879</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M56" s="7">
         <v>151</v>
@@ -10494,13 +10515,13 @@
         <v>174418</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>168</v>
+        <v>311</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -10515,13 +10536,13 @@
         <v>20929</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>310</v>
+        <v>149</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="H57" s="7">
         <v>25</v>
@@ -10530,13 +10551,13 @@
         <v>31517</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>231</v>
+        <v>314</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>123</v>
+        <v>315</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M57" s="7">
         <v>49</v>
@@ -10545,13 +10566,13 @@
         <v>52446</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>89</v>
+        <v>317</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>115</v>
+        <v>318</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -10566,13 +10587,13 @@
         <v>2630</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H58" s="7">
         <v>7</v>
@@ -10581,13 +10602,13 @@
         <v>9353</v>
       </c>
       <c r="J58" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L58" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M58" s="7">
         <v>10</v>
@@ -10599,10 +10620,10 @@
         <v>88</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>140</v>
+        <v>323</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -10658,7 +10679,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -10680,7 +10701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B9BD02-E227-4DF8-941A-E828B6F85D41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FFD620-F978-42FE-A4EC-B3702B686E4A}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10697,7 +10718,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10810,7 +10831,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -10825,7 +10846,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -10840,7 +10861,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -10858,7 +10879,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -10873,7 +10894,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -10888,7 +10909,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -10912,7 +10933,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -10927,7 +10948,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -10942,7 +10963,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10963,7 +10984,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -10978,7 +10999,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -10993,7 +11014,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -11014,7 +11035,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -11029,7 +11050,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -11044,7 +11065,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -11065,7 +11086,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -11080,7 +11101,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -11095,7 +11116,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -11116,7 +11137,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -11131,7 +11152,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -11146,7 +11167,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -11220,7 +11241,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -11235,7 +11256,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -11250,7 +11271,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -11268,7 +11289,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>19</v>
@@ -11283,7 +11304,7 @@
         <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>19</v>
@@ -11298,7 +11319,7 @@
         <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>19</v>
@@ -11322,7 +11343,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -11337,7 +11358,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -11352,7 +11373,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -11373,7 +11394,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -11388,7 +11409,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -11403,7 +11424,7 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -11424,7 +11445,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -11439,7 +11460,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -11454,7 +11475,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -11475,7 +11496,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -11490,7 +11511,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -11505,7 +11526,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -11526,7 +11547,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -11541,7 +11562,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -11556,7 +11577,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -11630,7 +11651,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -11645,7 +11666,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -11660,7 +11681,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -11678,7 +11699,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>19</v>
@@ -11693,7 +11714,7 @@
         <v>17</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>19</v>
@@ -11708,7 +11729,7 @@
         <v>17</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>19</v>
@@ -11732,7 +11753,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -11747,7 +11768,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -11762,7 +11783,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11783,7 +11804,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -11798,7 +11819,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -11813,7 +11834,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -11834,7 +11855,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -11849,7 +11870,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -11864,7 +11885,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -11885,7 +11906,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -11900,7 +11921,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -11915,7 +11936,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -11936,7 +11957,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -11951,7 +11972,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -11966,7 +11987,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -12070,7 +12091,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -12103,7 +12124,7 @@
         <v>17</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>19</v>
@@ -12118,7 +12139,7 @@
         <v>17</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>19</v>
@@ -12172,7 +12193,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -12223,7 +12244,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -12274,7 +12295,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -12325,7 +12346,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -12376,7 +12397,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -12480,7 +12501,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -12528,7 +12549,7 @@
         <v>17</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>19</v>
@@ -12582,7 +12603,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -12633,7 +12654,7 @@
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -12684,7 +12705,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12735,7 +12756,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -12786,7 +12807,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12854,13 +12875,13 @@
         <v>833</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>333</v>
+        <v>131</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -12869,13 +12890,13 @@
         <v>435</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -12884,13 +12905,13 @@
         <v>1268</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12908,7 +12929,7 @@
         <v>36</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>114</v>
@@ -12920,13 +12941,13 @@
         <v>6709</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="M45" s="7">
         <v>14</v>
@@ -12935,13 +12956,13 @@
         <v>8730</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>36</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -12956,13 +12977,13 @@
         <v>543209</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="H46" s="7">
         <v>1073</v>
@@ -12971,13 +12992,13 @@
         <v>676820</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M46" s="7">
         <v>1865</v>
@@ -12986,13 +13007,13 @@
         <v>1220029</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -13007,13 +13028,13 @@
         <v>59444</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H47" s="7">
         <v>237</v>
@@ -13022,13 +13043,13 @@
         <v>131765</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M47" s="7">
         <v>329</v>
@@ -13037,13 +13058,13 @@
         <v>191209</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -13058,13 +13079,13 @@
         <v>70611</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="H48" s="7">
         <v>268</v>
@@ -13073,13 +13094,13 @@
         <v>141523</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>358</v>
+        <v>265</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="M48" s="7">
         <v>374</v>
@@ -13088,13 +13109,13 @@
         <v>212134</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -13109,13 +13130,13 @@
         <v>20419</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H49" s="7">
         <v>104</v>
@@ -13124,13 +13145,13 @@
         <v>62495</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>175</v>
+        <v>370</v>
       </c>
       <c r="M49" s="7">
         <v>135</v>
@@ -13139,13 +13160,13 @@
         <v>82914</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -13163,10 +13184,10 @@
         <v>88</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
       <c r="H50" s="7">
         <v>14</v>
@@ -13175,13 +13196,13 @@
         <v>6891</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>369</v>
+        <v>116</v>
       </c>
       <c r="M50" s="7">
         <v>17</v>
@@ -13190,13 +13211,13 @@
         <v>8109</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>28</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>137</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -13264,13 +13285,13 @@
         <v>833</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -13279,7 +13300,7 @@
         <v>435</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>11</v>
@@ -13294,13 +13315,13 @@
         <v>1268</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -13315,13 +13336,13 @@
         <v>2689495</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H53" s="7">
         <v>3670</v>
@@ -13330,13 +13351,13 @@
         <v>2815652</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="M53" s="7">
         <v>6021</v>
@@ -13345,13 +13366,13 @@
         <v>5505146</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -13366,13 +13387,13 @@
         <v>543209</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="H54" s="7">
         <v>1073</v>
@@ -13381,13 +13402,13 @@
         <v>676820</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="M54" s="7">
         <v>1865</v>
@@ -13396,13 +13417,13 @@
         <v>1220029</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>386</v>
+        <v>183</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -13417,10 +13438,10 @@
         <v>59444</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>79</v>
@@ -13432,13 +13453,13 @@
         <v>131765</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M55" s="7">
         <v>329</v>
@@ -13447,13 +13468,13 @@
         <v>191209</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>227</v>
+        <v>127</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -13468,13 +13489,13 @@
         <v>70611</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="H56" s="7">
         <v>268</v>
@@ -13483,13 +13504,13 @@
         <v>141523</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>398</v>
+        <v>62</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M56" s="7">
         <v>374</v>
@@ -13498,13 +13519,13 @@
         <v>212134</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>277</v>
+        <v>405</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>194</v>
+        <v>407</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -13519,13 +13540,13 @@
         <v>20419</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>333</v>
+        <v>131</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>231</v>
+        <v>314</v>
       </c>
       <c r="H57" s="7">
         <v>104</v>
@@ -13534,13 +13555,13 @@
         <v>62495</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="M57" s="7">
         <v>135</v>
@@ -13549,10 +13570,10 @@
         <v>82914</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>136</v>
+        <v>410</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="Q57" s="7" t="s">
         <v>117</v>
@@ -13570,13 +13591,13 @@
         <v>1217</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="H58" s="7">
         <v>14</v>
@@ -13585,10 +13606,10 @@
         <v>6891</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>35</v>
@@ -13600,10 +13621,10 @@
         <v>8109</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Q58" s="7" t="s">
         <v>15</v>
@@ -13662,7 +13683,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/barthel_r-Edad-trans_orig.xlsx
+++ b/data/trans_orig/barthel_r-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA2E39F0-D41E-4B5E-844D-5C2E6880D57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9724D967-9E85-4E14-88F0-87FC227810F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{64643F7A-8D26-4E1F-B094-854C352A8900}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2D08D272-16EC-4F4A-9F77-73C33EC077E9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="413">
-  <si>
-    <t>Barthel recodificado en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="414">
+  <si>
+    <t>Población según los resultados de la escala de dependencia funcional para actividades básicas de la vida diaria (Barthel) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -200,1084 +200,1087 @@
     <t>86,66%</t>
   </si>
   <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
   </si>
   <si>
     <t>79,63%</t>
   </si>
   <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
   </si>
   <si>
     <t>82,62%</t>
   </si>
   <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
   </si>
   <si>
     <t>5,4%</t>
   </si>
   <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según los resultados de la escala de dependencia funcional para actividades básicas de la vida diaria (Barthel) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>Población según los resultados de la escala de dependencia funcional para actividades básicas de la vida diaria (Barthel) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>Población según los resultados de la escala de dependencia funcional para actividades básicas de la vida diaria (Barthel) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
   </si>
   <si>
     <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Barthel recodificado en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>Barthel recodificado en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>Barthel recodificado en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
   </si>
 </sst>
 </file>
@@ -1689,7 +1692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E85C37-6255-4C9E-BA4A-90E5F1C6CE89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D823A34-2F56-4A0C-871D-262510A8C960}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4321,7 +4324,7 @@
         <v>2691</v>
       </c>
       <c r="D53" s="7">
-        <v>2774077</v>
+        <v>2774078</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>96</v>
@@ -4351,7 +4354,7 @@
         <v>5327</v>
       </c>
       <c r="N53" s="7">
-        <v>5476433</v>
+        <v>5476432</v>
       </c>
       <c r="O53" s="7" t="s">
         <v>102</v>
@@ -4480,10 +4483,10 @@
         <v>123</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H56" s="7">
         <v>54</v>
@@ -4492,13 +4495,13 @@
         <v>60285</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M56" s="7">
         <v>84</v>
@@ -4507,13 +4510,13 @@
         <v>88284</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4531,13 @@
         <v>11063</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H57" s="7">
         <v>24</v>
@@ -4543,13 +4546,13 @@
         <v>26446</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="M57" s="7">
         <v>36</v>
@@ -4558,13 +4561,13 @@
         <v>37510</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>40</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,7 +4588,7 @@
         <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H58" s="7">
         <v>5</v>
@@ -4594,13 +4597,13 @@
         <v>4363</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>95</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="M58" s="7">
         <v>6</v>
@@ -4609,13 +4612,13 @@
         <v>5202</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P58" s="7" t="s">
         <v>95</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,7 +4630,7 @@
         <v>3214</v>
       </c>
       <c r="D59" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>19</v>
@@ -4657,7 +4660,7 @@
         <v>6511</v>
       </c>
       <c r="N59" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O59" s="7" t="s">
         <v>19</v>
@@ -4671,7 +4674,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4693,7 +4696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2726A3-3460-47A8-ABA4-57F253047140}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3573D7-BC89-4E12-B2D7-B58A342D2837}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4710,7 +4713,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4823,7 +4826,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4838,7 +4841,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4853,7 +4856,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,7 +4874,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4886,7 +4889,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4901,7 +4904,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4925,7 +4928,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4940,7 +4943,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4955,7 +4958,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,7 +4979,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4991,7 +4994,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5006,7 +5009,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,7 +5030,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5042,7 +5045,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5057,7 +5060,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,7 +5081,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5093,7 +5096,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5108,7 +5111,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,7 +5132,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5144,7 +5147,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5159,7 +5162,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,7 +5251,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5296,7 +5299,7 @@
         <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>19</v>
@@ -5350,7 +5353,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5401,7 +5404,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -5452,7 +5455,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5503,7 +5506,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5554,7 +5557,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6053,7 +6056,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6068,7 +6071,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6083,7 +6086,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,7 +6104,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>19</v>
@@ -6116,7 +6119,7 @@
         <v>17</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>19</v>
@@ -6131,7 +6134,7 @@
         <v>17</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>19</v>
@@ -6155,7 +6158,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6170,7 +6173,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -6185,7 +6188,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6206,7 +6209,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -6221,7 +6224,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -6236,7 +6239,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6257,7 +6260,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6272,7 +6275,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6287,7 +6290,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6308,7 +6311,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -6323,7 +6326,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -6338,7 +6341,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6359,7 +6362,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6374,7 +6377,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6389,7 +6392,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6478,7 +6481,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -6526,7 +6529,7 @@
         <v>17</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>19</v>
@@ -6580,7 +6583,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -6631,7 +6634,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -6682,7 +6685,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -6733,7 +6736,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -6784,7 +6787,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -6888,7 +6891,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -6939,7 +6942,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -6969,13 +6972,13 @@
         <v>454250</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H46" s="7">
         <v>478</v>
@@ -6984,13 +6987,13 @@
         <v>508585</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M46" s="7">
         <v>890</v>
@@ -6999,13 +7002,13 @@
         <v>962835</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7020,13 +7023,13 @@
         <v>21852</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H47" s="7">
         <v>40</v>
@@ -7035,13 +7038,13 @@
         <v>41940</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M47" s="7">
         <v>60</v>
@@ -7050,13 +7053,13 @@
         <v>63792</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>174</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7125,10 +7128,10 @@
         <v>184</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H49" s="7">
         <v>40</v>
@@ -7137,13 +7140,13 @@
         <v>43283</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M49" s="7">
         <v>58</v>
@@ -7152,13 +7155,13 @@
         <v>64693</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>189</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,13 +7176,13 @@
         <v>6145</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H50" s="7">
         <v>13</v>
@@ -7188,13 +7191,13 @@
         <v>15183</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M50" s="7">
         <v>19</v>
@@ -7203,13 +7206,13 @@
         <v>21328</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,13 +7331,13 @@
         <v>2867142</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H53" s="7">
         <v>2604</v>
@@ -7343,13 +7346,13 @@
         <v>2815334</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M53" s="7">
         <v>5309</v>
@@ -7358,13 +7361,13 @@
         <v>5682476</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,13 +7382,13 @@
         <v>454250</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H54" s="7">
         <v>478</v>
@@ -7394,13 +7397,13 @@
         <v>508585</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M54" s="7">
         <v>890</v>
@@ -7409,13 +7412,13 @@
         <v>962835</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7433,10 +7436,10 @@
         <v>90</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H55" s="7">
         <v>40</v>
@@ -7445,13 +7448,13 @@
         <v>41940</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M55" s="7">
         <v>60</v>
@@ -7460,13 +7463,13 @@
         <v>63792</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>221</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7481,13 +7484,13 @@
         <v>55980</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="H56" s="7">
         <v>123</v>
@@ -7496,10 +7499,10 @@
         <v>133983</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>225</v>
+        <v>85</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>226</v>
@@ -7538,7 +7541,7 @@
         <v>50</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="H57" s="7">
         <v>40</v>
@@ -7547,13 +7550,13 @@
         <v>43283</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>124</v>
+        <v>232</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M57" s="7">
         <v>58</v>
@@ -7562,13 +7565,13 @@
         <v>64693</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -7583,13 +7586,13 @@
         <v>6145</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>94</v>
+        <v>237</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H58" s="7">
         <v>13</v>
@@ -7598,13 +7601,13 @@
         <v>15183</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M58" s="7">
         <v>19</v>
@@ -7616,10 +7619,10 @@
         <v>35</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -7675,7 +7678,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -7697,7 +7700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBC7A93-D378-4A4F-B66A-D6D3EEF7B68B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279F0CA8-0F6F-43FA-9B35-A2B25202C0F4}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7714,7 +7717,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7842,7 +7845,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7890,7 +7893,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -7944,7 +7947,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -7995,7 +7998,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -8046,7 +8049,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8097,7 +8100,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -8148,7 +8151,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -8237,7 +8240,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -8252,7 +8255,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -8285,7 +8288,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>19</v>
@@ -8300,7 +8303,7 @@
         <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>19</v>
@@ -8315,7 +8318,7 @@
         <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>19</v>
@@ -8339,7 +8342,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8354,7 +8357,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -8390,7 +8393,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -8405,7 +8408,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -8441,7 +8444,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8456,7 +8459,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8492,7 +8495,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -8507,7 +8510,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -8543,7 +8546,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -8558,7 +8561,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -8647,7 +8650,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -8695,7 +8698,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>19</v>
@@ -8749,7 +8752,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>137</v>
+        <v>243</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -8800,7 +8803,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>243</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -8851,7 +8854,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>137</v>
+        <v>243</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8902,7 +8905,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>137</v>
+        <v>243</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8953,7 +8956,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>137</v>
+        <v>243</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -9057,7 +9060,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9105,7 +9108,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>19</v>
@@ -9135,7 +9138,7 @@
         <v>17</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>19</v>
@@ -9159,7 +9162,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -9210,7 +9213,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -9261,7 +9264,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9312,7 +9315,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -9363,7 +9366,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -9467,7 +9470,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -9497,7 +9500,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9515,7 +9518,7 @@
         <v>17</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>19</v>
@@ -9530,7 +9533,7 @@
         <v>17</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>19</v>
@@ -9545,7 +9548,7 @@
         <v>17</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>19</v>
@@ -9569,7 +9572,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -9599,7 +9602,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9620,7 +9623,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -9650,7 +9653,7 @@
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -9671,7 +9674,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -9701,7 +9704,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9722,7 +9725,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -9752,7 +9755,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9773,7 +9776,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -9803,7 +9806,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9973,13 +9976,13 @@
         <v>490699</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H46" s="7">
         <v>462</v>
@@ -9988,13 +9991,13 @@
         <v>537722</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M46" s="7">
         <v>979</v>
@@ -10003,13 +10006,13 @@
         <v>1028421</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10024,13 +10027,13 @@
         <v>30531</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H47" s="7">
         <v>60</v>
@@ -10039,13 +10042,13 @@
         <v>71460</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M47" s="7">
         <v>93</v>
@@ -10054,13 +10057,13 @@
         <v>101991</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10075,13 +10078,13 @@
         <v>46539</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H48" s="7">
         <v>101</v>
@@ -10090,10 +10093,10 @@
         <v>127879</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>265</v>
+        <v>112</v>
       </c>
       <c r="L48" s="7" t="s">
         <v>266</v>
@@ -10129,10 +10132,10 @@
         <v>270</v>
       </c>
       <c r="F49" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H49" s="7">
         <v>25</v>
@@ -10141,13 +10144,13 @@
         <v>31517</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M49" s="7">
         <v>49</v>
@@ -10159,10 +10162,10 @@
         <v>184</v>
       </c>
       <c r="P49" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -10180,10 +10183,10 @@
         <v>92</v>
       </c>
       <c r="F50" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H50" s="7">
         <v>7</v>
@@ -10192,13 +10195,13 @@
         <v>9353</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>279</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="M50" s="7">
         <v>10</v>
@@ -10207,13 +10210,13 @@
         <v>11983</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>141</v>
+        <v>281</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>222</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10332,13 +10335,13 @@
         <v>2803022</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>281</v>
+        <v>206</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H53" s="7">
         <v>2683</v>
@@ -10347,13 +10350,13 @@
         <v>2766611</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M53" s="7">
         <v>5287</v>
@@ -10362,13 +10365,13 @@
         <v>5569633</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>288</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -10383,13 +10386,13 @@
         <v>490699</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>206</v>
+        <v>291</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>290</v>
+        <v>214</v>
       </c>
       <c r="H54" s="7">
         <v>462</v>
@@ -10398,13 +10401,13 @@
         <v>537722</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M54" s="7">
         <v>979</v>
@@ -10413,13 +10416,13 @@
         <v>1028421</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -10434,13 +10437,13 @@
         <v>30531</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>299</v>
+        <v>224</v>
       </c>
       <c r="H55" s="7">
         <v>60</v>
@@ -10467,7 +10470,7 @@
         <v>303</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>223</v>
+        <v>116</v>
       </c>
       <c r="Q55" s="7" t="s">
         <v>304</v>
@@ -10485,13 +10488,13 @@
         <v>46539</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H56" s="7">
         <v>101</v>
@@ -10500,13 +10503,13 @@
         <v>127879</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M56" s="7">
         <v>151</v>
@@ -10515,13 +10518,13 @@
         <v>174418</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -10539,10 +10542,10 @@
         <v>230</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="H57" s="7">
         <v>25</v>
@@ -10551,13 +10554,13 @@
         <v>31517</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>314</v>
+        <v>121</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>315</v>
+        <v>124</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M57" s="7">
         <v>49</v>
@@ -10566,13 +10569,13 @@
         <v>52446</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>215</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -10587,13 +10590,13 @@
         <v>2630</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H58" s="7">
         <v>7</v>
@@ -10602,13 +10605,13 @@
         <v>9353</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>315</v>
+        <v>115</v>
       </c>
       <c r="M58" s="7">
         <v>10</v>
@@ -10620,7 +10623,7 @@
         <v>88</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>323</v>
+        <v>237</v>
       </c>
       <c r="Q58" s="7" t="s">
         <v>29</v>
@@ -10679,7 +10682,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -10701,7 +10704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FFD620-F978-42FE-A4EC-B3702B686E4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB6393C-4F6F-4CFE-A157-33795185BE4E}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10718,7 +10721,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10846,7 +10849,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -10861,7 +10864,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -10879,7 +10882,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -10894,7 +10897,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -10909,7 +10912,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -10948,7 +10951,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -10963,7 +10966,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10999,7 +11002,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -11014,7 +11017,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -11050,7 +11053,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -11065,7 +11068,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -11101,7 +11104,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -11116,7 +11119,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -11152,7 +11155,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -11167,7 +11170,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -11241,7 +11244,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -11256,7 +11259,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -11271,7 +11274,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -11289,7 +11292,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>19</v>
@@ -11304,7 +11307,7 @@
         <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>19</v>
@@ -11319,7 +11322,7 @@
         <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>19</v>
@@ -11343,7 +11346,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -11358,7 +11361,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -11373,7 +11376,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -11394,7 +11397,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -11409,7 +11412,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -11424,7 +11427,7 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -11445,7 +11448,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -11460,7 +11463,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -11475,7 +11478,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -11496,7 +11499,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -11511,7 +11514,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -11526,7 +11529,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -11547,7 +11550,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -11562,7 +11565,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -11577,7 +11580,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -11651,7 +11654,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -11666,7 +11669,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -11681,7 +11684,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -11699,7 +11702,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>19</v>
@@ -11714,7 +11717,7 @@
         <v>17</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>19</v>
@@ -11729,7 +11732,7 @@
         <v>17</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>19</v>
@@ -11753,7 +11756,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -11768,7 +11771,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -11783,7 +11786,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11804,7 +11807,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -11819,7 +11822,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -11834,7 +11837,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -11855,7 +11858,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -11870,7 +11873,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -11885,7 +11888,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -11906,7 +11909,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -11921,7 +11924,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -11936,7 +11939,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -11957,7 +11960,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -11972,7 +11975,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -11987,7 +11990,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -12091,7 +12094,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -12124,7 +12127,7 @@
         <v>17</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>19</v>
@@ -12133,13 +12136,13 @@
         <v>1806</v>
       </c>
       <c r="N29" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>19</v>
@@ -12193,7 +12196,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -12244,7 +12247,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -12295,7 +12298,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -12346,7 +12349,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -12397,7 +12400,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -12439,7 +12442,7 @@
         <v>1806</v>
       </c>
       <c r="N35" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>19</v>
@@ -12501,7 +12504,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -12549,7 +12552,7 @@
         <v>17</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>19</v>
@@ -12603,7 +12606,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -12654,7 +12657,7 @@
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -12705,7 +12708,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12756,7 +12759,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -12807,7 +12810,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12875,13 +12878,13 @@
         <v>833</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>131</v>
+        <v>325</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -12890,13 +12893,13 @@
         <v>435</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>321</v>
+        <v>45</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -12905,13 +12908,13 @@
         <v>1268</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>321</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12929,10 +12932,10 @@
         <v>36</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>114</v>
+        <v>339</v>
       </c>
       <c r="H45" s="7">
         <v>11</v>
@@ -12941,13 +12944,13 @@
         <v>6709</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="M45" s="7">
         <v>14</v>
@@ -12956,13 +12959,13 @@
         <v>8730</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -12977,13 +12980,13 @@
         <v>543209</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H46" s="7">
         <v>1073</v>
@@ -12992,13 +12995,13 @@
         <v>676820</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M46" s="7">
         <v>1865</v>
@@ -13007,13 +13010,13 @@
         <v>1220029</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -13028,13 +13031,13 @@
         <v>59444</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H47" s="7">
         <v>237</v>
@@ -13043,13 +13046,13 @@
         <v>131765</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M47" s="7">
         <v>329</v>
@@ -13058,13 +13061,13 @@
         <v>191209</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -13079,13 +13082,13 @@
         <v>70611</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H48" s="7">
         <v>268</v>
@@ -13094,13 +13097,13 @@
         <v>141523</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>265</v>
+        <v>362</v>
       </c>
       <c r="K48" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M48" s="7">
         <v>374</v>
@@ -13109,7 +13112,7 @@
         <v>212134</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>366</v>
@@ -13130,13 +13133,13 @@
         <v>20419</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>313</v>
+        <v>368</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>300</v>
+        <v>369</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>273</v>
+        <v>370</v>
       </c>
       <c r="H49" s="7">
         <v>104</v>
@@ -13145,13 +13148,13 @@
         <v>62495</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M49" s="7">
         <v>135</v>
@@ -13160,13 +13163,13 @@
         <v>82914</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>371</v>
+        <v>68</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>372</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -13184,10 +13187,10 @@
         <v>88</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>279</v>
+        <v>155</v>
       </c>
       <c r="H50" s="7">
         <v>14</v>
@@ -13196,13 +13199,13 @@
         <v>6891</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>237</v>
+        <v>35</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>116</v>
+        <v>376</v>
       </c>
       <c r="M50" s="7">
         <v>17</v>
@@ -13211,13 +13214,13 @@
         <v>8109</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>28</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>375</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -13229,7 +13232,7 @@
         <v>1028</v>
       </c>
       <c r="D51" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>19</v>
@@ -13285,13 +13288,13 @@
         <v>833</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>322</v>
+        <v>138</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -13300,7 +13303,7 @@
         <v>435</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>11</v>
@@ -13315,13 +13318,13 @@
         <v>1268</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -13336,7 +13339,7 @@
         <v>2689495</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>377</v>
+        <v>287</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>378</v>
@@ -13363,7 +13366,7 @@
         <v>6021</v>
       </c>
       <c r="N53" s="7">
-        <v>5505146</v>
+        <v>5505147</v>
       </c>
       <c r="O53" s="7" t="s">
         <v>383</v>
@@ -13390,10 +13393,10 @@
         <v>386</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>387</v>
+        <v>269</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>388</v>
+        <v>110</v>
       </c>
       <c r="H54" s="7">
         <v>1073</v>
@@ -13402,13 +13405,13 @@
         <v>676820</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M54" s="7">
         <v>1865</v>
@@ -13417,13 +13420,13 @@
         <v>1220029</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>183</v>
+        <v>390</v>
       </c>
       <c r="P54" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -13438,13 +13441,13 @@
         <v>59444</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H55" s="7">
         <v>237</v>
@@ -13459,7 +13462,7 @@
         <v>397</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>166</v>
+        <v>398</v>
       </c>
       <c r="M55" s="7">
         <v>329</v>
@@ -13468,13 +13471,13 @@
         <v>191209</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>127</v>
+        <v>400</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -13489,13 +13492,13 @@
         <v>70611</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>402</v>
+        <v>185</v>
       </c>
       <c r="H56" s="7">
         <v>268</v>
@@ -13504,13 +13507,13 @@
         <v>141523</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>62</v>
+        <v>404</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M56" s="7">
         <v>374</v>
@@ -13519,13 +13522,13 @@
         <v>212134</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -13540,13 +13543,13 @@
         <v>20419</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>314</v>
+        <v>219</v>
       </c>
       <c r="H57" s="7">
         <v>104</v>
@@ -13555,13 +13558,13 @@
         <v>62495</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M57" s="7">
         <v>135</v>
@@ -13570,13 +13573,13 @@
         <v>82914</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>117</v>
+        <v>413</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -13591,13 +13594,13 @@
         <v>1217</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H58" s="7">
         <v>14</v>
@@ -13606,10 +13609,10 @@
         <v>6891</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>412</v>
+        <v>237</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>35</v>
@@ -13621,10 +13624,10 @@
         <v>8109</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Q58" s="7" t="s">
         <v>15</v>
@@ -13669,7 +13672,7 @@
         <v>8743</v>
       </c>
       <c r="N59" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O59" s="7" t="s">
         <v>19</v>
@@ -13683,7 +13686,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
